--- a/data/trans_orig/P23_1_2016_2023_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>102215</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85449</v>
+        <v>85175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121406</v>
+        <v>122454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2382127574632305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1991392210887223</v>
+        <v>0.198499504511347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2829362915222346</v>
+        <v>0.2853790732190393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -763,19 +763,19 @@
         <v>68724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54825</v>
+        <v>54315</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84890</v>
+        <v>85609</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1980193123502505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.157971348641776</v>
+        <v>0.1565032024725062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2446003123332604</v>
+        <v>0.2466738294976727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -784,19 +784,19 @@
         <v>170939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147229</v>
+        <v>148420</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194108</v>
+        <v>196514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.220240216399375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1896921704906879</v>
+        <v>0.1912272206631319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2500922097700367</v>
+        <v>0.2531920824475327</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>326877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307686</v>
+        <v>306638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343643</v>
+        <v>343917</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7617872425367695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7170637084777653</v>
+        <v>0.7146209267809607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8008607789112779</v>
+        <v>0.801500495488653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -834,19 +834,19 @@
         <v>278331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262165</v>
+        <v>261446</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292230</v>
+        <v>292740</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8019806876497495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7553996876667397</v>
+        <v>0.7533261705023274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.842028651358224</v>
+        <v>0.8434967975274937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>571</v>
@@ -855,19 +855,19 @@
         <v>605208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>582039</v>
+        <v>579633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628918</v>
+        <v>627727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.779759783600625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7499077902299633</v>
+        <v>0.7468079175524674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8103078295093119</v>
+        <v>0.8087727793368682</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>84666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70060</v>
+        <v>69184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102644</v>
+        <v>101327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2250839863753596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.186253642137453</v>
+        <v>0.1839250329776727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2728761445730494</v>
+        <v>0.2693746487625896</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -980,19 +980,19 @@
         <v>69943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54458</v>
+        <v>54499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85131</v>
+        <v>86798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1884014699057723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1466885583223557</v>
+        <v>0.1467999138269516</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2293114323525457</v>
+        <v>0.2338020668014038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -1001,19 +1001,19 @@
         <v>154610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133195</v>
+        <v>132723</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178250</v>
+        <v>177202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.206863202401835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1782109204362724</v>
+        <v>0.1775798296834619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2384934880566975</v>
+        <v>0.237090863325987</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>291489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273511</v>
+        <v>274828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306095</v>
+        <v>306971</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7749160136246405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7271238554269507</v>
+        <v>0.7306253512374103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8137463578625471</v>
+        <v>0.8160749670223274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -1051,19 +1051,19 @@
         <v>301303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>286115</v>
+        <v>284448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>316788</v>
+        <v>316747</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8115985300942277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7706885676474539</v>
+        <v>0.7661979331985962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8533114416776439</v>
+        <v>0.8532000861730488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -1072,19 +1072,19 @@
         <v>592791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>569151</v>
+        <v>570199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>614206</v>
+        <v>614678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.793136797598165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7615065119433025</v>
+        <v>0.7629091366740131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.821789079563728</v>
+        <v>0.8224201703165381</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>117787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98158</v>
+        <v>100174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136653</v>
+        <v>137386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2256820317053805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1880723260444924</v>
+        <v>0.1919350537849047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2618298100280794</v>
+        <v>0.263235578802638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1197,19 +1197,19 @@
         <v>16361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9752</v>
+        <v>9875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25242</v>
+        <v>25128</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09848635881526549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05870440710022003</v>
+        <v>0.05944208239743013</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1519484517602626</v>
+        <v>0.1512606006762125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1218,19 +1218,19 @@
         <v>134147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114276</v>
+        <v>115825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156504</v>
+        <v>154912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1949713034059455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1660896835159044</v>
+        <v>0.1683417569956589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2274651670579614</v>
+        <v>0.2251503848962436</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>404127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>385261</v>
+        <v>384528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>423756</v>
+        <v>421740</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7743179682946195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7381701899719205</v>
+        <v>0.7367644211973619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8119276739555075</v>
+        <v>0.8080649462150953</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -1268,19 +1268,19 @@
         <v>149762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140881</v>
+        <v>140995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156371</v>
+        <v>156248</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9015136411847345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8480515482397376</v>
+        <v>0.8487393993237878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.94129559289978</v>
+        <v>0.9405579176025701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>520</v>
@@ -1289,19 +1289,19 @@
         <v>553889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531532</v>
+        <v>533124</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>573760</v>
+        <v>572211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8050286965940545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7725348329420382</v>
+        <v>0.7748496151037564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8339103164840951</v>
+        <v>0.8316582430043411</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>265065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>235724</v>
+        <v>239011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>294106</v>
+        <v>295622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2307369241628594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2051961523722169</v>
+        <v>0.2080577731794108</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2560172406208909</v>
+        <v>0.2573365345241151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1414,19 +1414,19 @@
         <v>100897</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83223</v>
+        <v>83758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122536</v>
+        <v>122232</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1223064991736837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.100882654664668</v>
+        <v>0.1015311054634109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1485373176452038</v>
+        <v>0.1481693070046775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>351</v>
@@ -1435,19 +1435,19 @@
         <v>365961</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330520</v>
+        <v>333691</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>401309</v>
+        <v>407185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.185416716637133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1674600857579001</v>
+        <v>0.1690668367949524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2033260909704178</v>
+        <v>0.2063032872432136</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>883709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854668</v>
+        <v>853152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913050</v>
+        <v>909763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7692630758371406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7439827593791093</v>
+        <v>0.742663465475885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7948038476277832</v>
+        <v>0.7919422268205892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>702</v>
@@ -1485,19 +1485,19 @@
         <v>724051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>702412</v>
+        <v>702716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>741725</v>
+        <v>741190</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8776935008263163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8514626823547966</v>
+        <v>0.8518306929953221</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8991173453353319</v>
+        <v>0.8984688945365891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1548</v>
@@ -1506,19 +1506,19 @@
         <v>1607761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1572413</v>
+        <v>1566537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1643202</v>
+        <v>1640031</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.814583283362867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7966739090295822</v>
+        <v>0.7936967127567863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8325399142420999</v>
+        <v>0.8309331632050476</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>127978</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110892</v>
+        <v>108895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149241</v>
+        <v>150949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2061812463605533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1786551275811764</v>
+        <v>0.175437546702117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2404382986754275</v>
+        <v>0.243188792223611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -1631,19 +1631,19 @@
         <v>83081</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65937</v>
+        <v>66476</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100968</v>
+        <v>102462</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1127053631084459</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08944803056574079</v>
+        <v>0.09017923337241987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1369694336404459</v>
+        <v>0.1389964728788723</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>206</v>
@@ -1652,19 +1652,19 @@
         <v>211059</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>182790</v>
+        <v>186161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240260</v>
+        <v>239044</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1554350863988054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1346161763533788</v>
+        <v>0.1370985236525265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1769398768796645</v>
+        <v>0.1760446048077672</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>492728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471465</v>
+        <v>469757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509814</v>
+        <v>511811</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7938187536394468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7595617013245721</v>
+        <v>0.7568112077763891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8213448724188235</v>
+        <v>0.824562453297883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>620</v>
@@ -1702,19 +1702,19 @@
         <v>654074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>636187</v>
+        <v>634693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>671218</v>
+        <v>670679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8872946368915541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.863030566359554</v>
+        <v>0.8610035271211277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9105519694342592</v>
+        <v>0.90982076662758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1089</v>
@@ -1723,19 +1723,19 @@
         <v>1146802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1117601</v>
+        <v>1118817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1175071</v>
+        <v>1171700</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8445649136011946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8230601231203354</v>
+        <v>0.8239553951922326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8653838236466208</v>
+        <v>0.8629014763474735</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>5570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12157</v>
+        <v>12016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01939919001127695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007363555835206866</v>
+        <v>0.007352801032206967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04233734022620127</v>
+        <v>0.04184797979155741</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1848,19 +1848,19 @@
         <v>46888</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34156</v>
+        <v>33887</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61694</v>
+        <v>62140</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04342987030858863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03163636646497286</v>
+        <v>0.03138765208720107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05714343554133985</v>
+        <v>0.05755710424648672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1869,19 +1869,19 @@
         <v>52459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40161</v>
+        <v>39081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69635</v>
+        <v>69097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03838127714344507</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02938400255349055</v>
+        <v>0.02859346977779826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0509485282591841</v>
+        <v>0.05055453931402579</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>281575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274988</v>
+        <v>275129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285031</v>
+        <v>285034</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.980600809988723</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9576626597737987</v>
+        <v>0.9581520202084418</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9926364441647931</v>
+        <v>0.992647198967793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>946</v>
@@ -1919,19 +1919,19 @@
         <v>1032742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1017936</v>
+        <v>1017490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1045474</v>
+        <v>1045743</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9565701296914114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9428565644586602</v>
+        <v>0.9424428957535131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9683636335350273</v>
+        <v>0.9686123479127989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1213</v>
@@ -1940,19 +1940,19 @@
         <v>1314316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1297140</v>
+        <v>1297678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1326614</v>
+        <v>1327694</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9616187228565549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9490514717408157</v>
+        <v>0.9494454606859744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9706159974465095</v>
+        <v>0.9714065302222018</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>703281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>657669</v>
+        <v>657725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>756103</v>
+        <v>750134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2078385372294898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1943589863654507</v>
+        <v>0.1943756373679248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2234489616393664</v>
+        <v>0.2216850174675559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>364</v>
@@ -2065,19 +2065,19 @@
         <v>385894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>351592</v>
+        <v>348039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>425581</v>
+        <v>423775</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1094374777298315</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09970969826158918</v>
+        <v>0.09870219485374947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1206925562024144</v>
+        <v>0.1201804035807638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1045</v>
@@ -2086,19 +2086,19 @@
         <v>1089175</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1033145</v>
+        <v>1028560</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1153586</v>
+        <v>1152140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1576242847098001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1495157150306832</v>
+        <v>0.1488521993203938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1669457781823313</v>
+        <v>0.166736560409664</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2680504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2627682</v>
+        <v>2633651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2726116</v>
+        <v>2726060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7921614627705101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7765510383606337</v>
+        <v>0.7783149825324441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8056410136345493</v>
+        <v>0.8056243626320753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2957</v>
@@ -2136,19 +2136,19 @@
         <v>3140263</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3100576</v>
+        <v>3102382</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3174565</v>
+        <v>3178118</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8905625222701684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.879307443797586</v>
+        <v>0.8798195964192363</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9002903017384111</v>
+        <v>0.9012978051462508</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5498</v>
@@ -2157,19 +2157,19 @@
         <v>5820768</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5756357</v>
+        <v>5757803</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5876798</v>
+        <v>5881383</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8423757152901999</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8330542218176689</v>
+        <v>0.8332634395903351</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8504842849693167</v>
+        <v>0.8511478006796047</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>130620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110942</v>
+        <v>110660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151825</v>
+        <v>150972</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2372236665078155</v>
+        <v>0.2372236665078154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2014871473994484</v>
+        <v>0.2009742603060874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2757358535488558</v>
+        <v>0.2741859262376982</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -2524,19 +2524,19 @@
         <v>69425</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56725</v>
+        <v>57948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82216</v>
+        <v>85123</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1421441221322047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1161414968756106</v>
+        <v>0.1186458909233511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1683340797682521</v>
+        <v>0.1742861140378891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -2545,19 +2545,19 @@
         <v>200044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177488</v>
+        <v>176940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225165</v>
+        <v>224465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1925301327397968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1708207994413418</v>
+        <v>0.1702939581645379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2167069097418007</v>
+        <v>0.2160333524121155</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>419998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398793</v>
+        <v>399646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439676</v>
+        <v>439958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7627763334921847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7242641464511447</v>
+        <v>0.7258140737623016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.798512852600552</v>
+        <v>0.7990257396939126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>583</v>
@@ -2595,19 +2595,19 @@
         <v>418986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>406195</v>
+        <v>403288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>431686</v>
+        <v>430463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8578558778677953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8316659202317473</v>
+        <v>0.825713885962111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8838585031243895</v>
+        <v>0.8813541090766488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>994</v>
@@ -2616,19 +2616,19 @@
         <v>838985</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>813864</v>
+        <v>814564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>861541</v>
+        <v>862089</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8074698672602033</v>
+        <v>0.8074698672602032</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7832930902581994</v>
+        <v>0.7839666475878844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8291792005586582</v>
+        <v>0.8297060418354619</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>102351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84835</v>
+        <v>85688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119211</v>
+        <v>121314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2118144465299662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1755655656749386</v>
+        <v>0.1773303852402973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2467052645801042</v>
+        <v>0.251057675636441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -2741,19 +2741,19 @@
         <v>62836</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52005</v>
+        <v>51684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77057</v>
+        <v>77421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1484991210136506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1229025020519952</v>
+        <v>0.1221435562790434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1821072887562454</v>
+        <v>0.1829668009265537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -2762,19 +2762,19 @@
         <v>165188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145150</v>
+        <v>145406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189389</v>
+        <v>187055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1822549168558048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1601466947675513</v>
+        <v>0.1604298621302241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2089562149961124</v>
+        <v>0.2063818468992019</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>380861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364001</v>
+        <v>361898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>398377</v>
+        <v>397524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7881855534700337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7532947354198957</v>
+        <v>0.748942324363559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8244344343250612</v>
+        <v>0.8226696147597027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>502</v>
@@ -2812,19 +2812,19 @@
         <v>360307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346086</v>
+        <v>345722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371138</v>
+        <v>371459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8515008789863493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8178927112437546</v>
+        <v>0.8170331990734462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.877097497948005</v>
+        <v>0.8778564437209562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>867</v>
@@ -2833,19 +2833,19 @@
         <v>741167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>716966</v>
+        <v>719300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>761205</v>
+        <v>760949</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8177450831441951</v>
+        <v>0.8177450831441953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7910437850038876</v>
+        <v>0.793618153100798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8398533052324487</v>
+        <v>0.8395701378697759</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>106179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88035</v>
+        <v>89123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123882</v>
+        <v>125237</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2251401637177811</v>
+        <v>0.225140163717781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1866683424325227</v>
+        <v>0.1889759727635067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2626773342281891</v>
+        <v>0.2655501323570017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2958,19 +2958,19 @@
         <v>22682</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15813</v>
+        <v>15858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30669</v>
+        <v>30931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1209702698326917</v>
+        <v>0.1209702698326916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.084337111930935</v>
+        <v>0.0845749349403238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1635705612086827</v>
+        <v>0.1649705931664668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -2979,19 +2979,19 @@
         <v>128860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109777</v>
+        <v>109879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147665</v>
+        <v>149012</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1955068674384514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1665535298161147</v>
+        <v>0.1667090657819513</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2240371938059653</v>
+        <v>0.2260809932969032</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>365433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>347730</v>
+        <v>346375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>383577</v>
+        <v>382489</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7748598362822189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7373226657718113</v>
+        <v>0.7344498676429984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8133316575674776</v>
+        <v>0.8110240272364934</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>254</v>
@@ -3029,19 +3029,19 @@
         <v>164815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156828</v>
+        <v>156566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171684</v>
+        <v>171639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8790297301673082</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8364294387913174</v>
+        <v>0.8350294068335331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.915662888069065</v>
+        <v>0.9154250650596761</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>618</v>
@@ -3050,19 +3050,19 @@
         <v>530249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511444</v>
+        <v>510097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549332</v>
+        <v>549230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8044931325615488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7759628061940349</v>
+        <v>0.7739190067030969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8334464701838853</v>
+        <v>0.8332909342180489</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>212025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186780</v>
+        <v>186026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238022</v>
+        <v>237543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.187327358152293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1650226361246492</v>
+        <v>0.1643569156073846</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2102961060443283</v>
+        <v>0.2098725681393319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -3175,19 +3175,19 @@
         <v>85111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71215</v>
+        <v>70981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100784</v>
+        <v>101606</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09890742110465987</v>
+        <v>0.0989074211046599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08275878439366824</v>
+        <v>0.08248730038125021</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1171209082641983</v>
+        <v>0.1180762468965657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>369</v>
@@ -3196,19 +3196,19 @@
         <v>297136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270044</v>
+        <v>267664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>328167</v>
+        <v>325971</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1491382505452042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1355404440426556</v>
+        <v>0.1343455470900664</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1647131480251589</v>
+        <v>0.1636111920737068</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>919818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>893821</v>
+        <v>894300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945063</v>
+        <v>945817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8126726418477069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7897038939556716</v>
+        <v>0.790127431860668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8349773638753508</v>
+        <v>0.8356430843926154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1110</v>
@@ -3246,19 +3246,19 @@
         <v>775398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>759725</v>
+        <v>758903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>789294</v>
+        <v>789528</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9010925788953401</v>
+        <v>0.9010925788953402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8828790917358019</v>
+        <v>0.8819237531034342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.917241215606332</v>
+        <v>0.9175126996187497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1978</v>
@@ -3267,19 +3267,19 @@
         <v>1695216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1664185</v>
+        <v>1666381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1722308</v>
+        <v>1724688</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8508617494547958</v>
+        <v>0.8508617494547959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8352868519748413</v>
+        <v>0.8363888079262931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8644595559573443</v>
+        <v>0.8656544529099336</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>95144</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79253</v>
+        <v>79154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112991</v>
+        <v>114189</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1678373248070939</v>
+        <v>0.1678373248070938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1398052630596744</v>
+        <v>0.1396310036866168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1993196036449733</v>
+        <v>0.2014328281122308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -3392,19 +3392,19 @@
         <v>80468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66016</v>
+        <v>66280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96522</v>
+        <v>96131</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09693225425861894</v>
+        <v>0.09693225425861896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07952354321545423</v>
+        <v>0.0798419740885225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1162712796560334</v>
+        <v>0.115800675640847</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -3413,19 +3413,19 @@
         <v>175612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155812</v>
+        <v>153566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200369</v>
+        <v>198996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1257039316156661</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1115312397616665</v>
+        <v>0.1099238090749772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1434251004321102</v>
+        <v>0.1424426301359348</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>471738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>453891</v>
+        <v>452693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>487629</v>
+        <v>487728</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8321626751929061</v>
+        <v>0.832162675192906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8006803963550267</v>
+        <v>0.798567171887769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8601947369403257</v>
+        <v>0.8603689963133833</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1176</v>
@@ -3463,19 +3463,19 @@
         <v>749677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>733623</v>
+        <v>734014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>764129</v>
+        <v>763865</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.903067745741381</v>
+        <v>0.9030677457413812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8837287203439665</v>
+        <v>0.884199324359153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9204764567845458</v>
+        <v>0.9201580259114774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1610</v>
@@ -3484,19 +3484,19 @@
         <v>1221414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1196657</v>
+        <v>1198030</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1241214</v>
+        <v>1243460</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8742960683843339</v>
+        <v>0.8742960683843337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8565748995678898</v>
+        <v>0.8575573698640652</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8884687602383333</v>
+        <v>0.8900761909250227</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>6666</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2137</v>
+        <v>2374</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14644</v>
+        <v>14124</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02823390429492625</v>
+        <v>0.02823390429492626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009051913590016662</v>
+        <v>0.01005490095004478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06202989513657203</v>
+        <v>0.05982631279326484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -3609,19 +3609,19 @@
         <v>38167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28842</v>
+        <v>28586</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49312</v>
+        <v>49010</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04520703254748134</v>
+        <v>0.04520703254748135</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03416102509310007</v>
+        <v>0.03385846970745268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05840672039362257</v>
+        <v>0.05804997633114437</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -3630,19 +3630,19 @@
         <v>44833</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35223</v>
+        <v>34954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57603</v>
+        <v>57887</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04149799737498872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03260253086953241</v>
+        <v>0.03235357832630612</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05331779452658562</v>
+        <v>0.05358093513171189</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>229420</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221442</v>
+        <v>221962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233949</v>
+        <v>233712</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9717660957050739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9379701048634281</v>
+        <v>0.9401736872067344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9909480864099833</v>
+        <v>0.9899450990499552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1099</v>
@@ -3680,19 +3680,19 @@
         <v>806114</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>794969</v>
+        <v>795271</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>815439</v>
+        <v>815695</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9547929674525185</v>
+        <v>0.9547929674525187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.941593279606378</v>
+        <v>0.9419500236688563</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9658389749069001</v>
+        <v>0.9661415302925475</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1204</v>
@@ -3701,19 +3701,19 @@
         <v>1035534</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1022764</v>
+        <v>1022480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1045144</v>
+        <v>1045413</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9585020026250114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9466822054734144</v>
+        <v>0.9464190648682876</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9673974691304678</v>
+        <v>0.9676464216736937</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>652984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>609306</v>
+        <v>607678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>701608</v>
+        <v>701309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1898070997074175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1771107577073018</v>
+        <v>0.1766376016186924</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2039407914242337</v>
+        <v>0.2038539972886498</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>518</v>
@@ -3826,19 +3826,19 @@
         <v>358689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>328258</v>
+        <v>329955</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>388553</v>
+        <v>392325</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09870392002827348</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09033005566674317</v>
+        <v>0.09079698877490294</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1069218830972763</v>
+        <v>0.1079599538479527</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1269</v>
@@ -3847,19 +3847,19 @@
         <v>1011673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>960537</v>
+        <v>958096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1070092</v>
+        <v>1067726</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1430080503867412</v>
+        <v>0.1430080503867413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1357795208433764</v>
+        <v>0.1354344908824464</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1512660363779676</v>
+        <v>0.1509316617232145</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2787268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2738644</v>
+        <v>2738943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2830946</v>
+        <v>2832574</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8101929002925826</v>
+        <v>0.8101929002925825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7960592085757662</v>
+        <v>0.7961460027113499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8228892422926981</v>
+        <v>0.8233623983813074</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4724</v>
@@ -3897,19 +3897,19 @@
         <v>3275296</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3245432</v>
+        <v>3241660</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3305727</v>
+        <v>3304030</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9012960799717267</v>
+        <v>0.9012960799717264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8930781169027237</v>
+        <v>0.8920400461520475</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9096699443332568</v>
+        <v>0.9092030112250971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7271</v>
@@ -3918,19 +3918,19 @@
         <v>6062564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6004145</v>
+        <v>6006511</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6113700</v>
+        <v>6116141</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8569919496132586</v>
+        <v>0.8569919496132589</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8487339636220322</v>
+        <v>0.8490683382767855</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8642204791566237</v>
+        <v>0.8645655091175531</v>
       </c>
     </row>
     <row r="24">
